--- a/dataset/artist-breakdown-annotated.xlsx
+++ b/dataset/artist-breakdown-annotated.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcharan/Dropbox/FlatIron/final-project/kaggle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcharan/Dropbox/FlatIron/final-project/art-dream/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1844,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4833,7 +4833,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>497</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>499</v>
       </c>
@@ -4853,11 +4853,6 @@
       </c>
       <c r="C258">
         <v>100</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D259">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
